--- a/datafull.xlsx
+++ b/datafull.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD146"/>
+  <dimension ref="A1:BD154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27798,6 +27798,2262 @@
         </is>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Enter Custodian</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Enter Source Destination</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Enter Source File</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Enter Date Format</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Enter Header Delimiter</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Enter XLS Sheet Name</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Enter Start String</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Enter Sequence</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Enter Config File</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>New Column Index</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Snowflake Account</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Snowflake Schema</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Snowflake FileFormat</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>Fixed_Width</t>
+        </is>
+      </c>
+      <c r="AA147" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>Enter Date Position</t>
+        </is>
+      </c>
+      <c r="AC147" t="inlineStr">
+        <is>
+          <t>Enter Number of Quarters</t>
+        </is>
+      </c>
+      <c r="AD147" t="inlineStr">
+        <is>
+          <t>Enter Number of Trailer Lines</t>
+        </is>
+      </c>
+      <c r="AE147" t="inlineStr">
+        <is>
+          <t>Enter Column Number</t>
+        </is>
+      </c>
+      <c r="AF147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AG147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AH147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AI147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AJ147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AK147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AL147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AM147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AN147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AO147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AP147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AQ147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AR147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AS147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AT147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AU147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AV147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AW147" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AX147" t="inlineStr">
+        <is>
+          <t>Fixed_Width</t>
+        </is>
+      </c>
+      <c r="AY147" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AZ147" t="inlineStr">
+        <is>
+          <t>Enter Date Position</t>
+        </is>
+      </c>
+      <c r="BA147" t="inlineStr">
+        <is>
+          <t>Enter Number of Quarters</t>
+        </is>
+      </c>
+      <c r="BB147" t="inlineStr">
+        <is>
+          <t>Enter Number of Header Lines</t>
+        </is>
+      </c>
+      <c r="BC147" t="inlineStr">
+        <is>
+          <t>Enter Number of Trailer Lines</t>
+        </is>
+      </c>
+      <c r="BD147" t="inlineStr">
+        <is>
+          <t>Enter Column Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SWB</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>SWB_POSITIONSEC_IMP</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>SWB_CRS.RPS.*</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>YYYYMMDD</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>SWB_POSITIONSEC</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>DV-AW-SQL04</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>hightoweradvisors.us-east-1</t>
+        </is>
+      </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>wh_load</t>
+        </is>
+      </c>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>ht_vendor_stage</t>
+        </is>
+      </c>
+      <c r="AA148" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>PIPEDELIMITED</t>
+        </is>
+      </c>
+      <c r="AC148" t="inlineStr">
+        <is>
+          <t>LOAD_SWB_PositionSEC</t>
+        </is>
+      </c>
+      <c r="AD148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AE148" t="inlineStr">
+        <is>
+          <t>Needs filtering on a column</t>
+        </is>
+      </c>
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AG148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AH148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AI148" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AJ148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AK148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AL148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AM148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AN148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AO148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AP148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AQ148" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AR148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AS148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AT148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AU148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AV148" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AW148" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AX148" t="inlineStr">
+        <is>
+          <t>Pipe_Delimited</t>
+        </is>
+      </c>
+      <c r="AY148" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AZ148" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BA148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BB148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SWB</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SWB_TRANSACTION_IMP</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SWB_CRS.TRN.*</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>YYYYMMDD</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>hightoweradvisors.us-east-1</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>PIPEDELIMITED</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>Pipe_Delimited</t>
+        </is>
+      </c>
+      <c r="AA149" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AD149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AG149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AH149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AI149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AJ149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AK149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AL149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AM149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AN149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AO149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AP149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AQ149" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AR149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AS149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AT149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AU149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AV149" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AW149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AX149" t="inlineStr">
+        <is>
+          <t>Pipe_Delimited</t>
+        </is>
+      </c>
+      <c r="AY149" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AZ149" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BA149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BB149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BC149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>IWS</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>COGS_MUTUAL_FUND_DIRECTORY_IMP</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Fidelity_Template.*</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>\nCertain</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>hightoweradvisors.us-east-1</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>wh_load</t>
+        </is>
+      </c>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>ht_vendor_stage</t>
+        </is>
+      </c>
+      <c r="AA150" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>COMMADELIMITED</t>
+        </is>
+      </c>
+      <c r="AC150" t="inlineStr">
+        <is>
+          <t>LOAD_IWS_COGS_MUTUAL_FUND_DIRECTORY</t>
+        </is>
+      </c>
+      <c r="AD150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AE150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AG150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AH150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AI150" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AJ150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AK150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AL150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AM150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AN150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AO150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AP150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AQ150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AR150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AS150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AT150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AU150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AV150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AW150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AX150" t="inlineStr">
+        <is>
+          <t>CSV</t>
+        </is>
+      </c>
+      <c r="AY150" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AZ150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BB150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC150" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="BD150" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>IWS</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>COGS_MUTUAL_FUND_DIRECTORY_IMP</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Fidelity_Template.*</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>\nCertain</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>hightoweradvisors.us-east-1</t>
+        </is>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>wh_load</t>
+        </is>
+      </c>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>ht_vendor_stage</t>
+        </is>
+      </c>
+      <c r="AA151" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="AB151" t="inlineStr">
+        <is>
+          <t>COMMADELIMITED</t>
+        </is>
+      </c>
+      <c r="AC151" t="inlineStr">
+        <is>
+          <t>LOAD_IWS_COGS_MUTUAL_FUND_DIRECTORY</t>
+        </is>
+      </c>
+      <c r="AD151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AE151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AG151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AH151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AI151" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AJ151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AK151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AL151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AM151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AN151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AO151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AP151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AQ151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AR151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AS151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AT151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AU151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AV151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AW151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AX151" t="inlineStr">
+        <is>
+          <t>CSV</t>
+        </is>
+      </c>
+      <c r="AY151" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AZ151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BB151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC151" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="BD151" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SWB</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>SWB_TRANSACTION_IMP</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SWB_CRS.TRN.*</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>YYYYMMDD</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>hightoweradvisors.us-east-1</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>PIPEDELIMITED</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="Z152" t="inlineStr">
+        <is>
+          <t>Pipe_Delimited</t>
+        </is>
+      </c>
+      <c r="AA152" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AB152" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AC152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AD152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AG152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AH152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AI152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AJ152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AK152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AL152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AM152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AN152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AO152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AP152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AQ152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AR152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AS152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AT152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AU152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AV152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AW152" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AX152" t="inlineStr">
+        <is>
+          <t>CSV</t>
+        </is>
+      </c>
+      <c r="AY152" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AZ152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BB152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC152" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="BD152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SWB</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>SWB_TRANSACTION_IMP</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>SWB_CRS.TRN.*</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>YYYYMMDD</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>hightoweradvisors.us-east-1</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>PIPEDELIMITED</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>Pipe_Delimited</t>
+        </is>
+      </c>
+      <c r="AA153" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AB153" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AC153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AD153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AG153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AH153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AI153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AJ153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AK153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AL153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AM153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AN153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AO153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AP153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AQ153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AR153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AS153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AT153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AU153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AV153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AW153" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AX153" t="inlineStr">
+        <is>
+          <t>CSV</t>
+        </is>
+      </c>
+      <c r="AY153" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AZ153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BB153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC153" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="BD153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SWB</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>SWB_TRANSACTION_IMP</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>SWB_CRS.TRN.*</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>YYYYMMDD</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>hightoweradvisors.us-east-1</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>PIPEDELIMITED</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>Pipe_Delimited</t>
+        </is>
+      </c>
+      <c r="AA154" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AB154" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AC154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AD154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AG154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AH154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AI154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AJ154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AK154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AL154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AM154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AN154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AO154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AP154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AQ154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AR154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AS154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AT154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AU154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AV154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AW154" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AX154" t="inlineStr">
+        <is>
+          <t>CSV</t>
+        </is>
+      </c>
+      <c r="AY154" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AZ154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BA154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BB154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC154" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="BD154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datafull.xlsx
+++ b/datafull.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="datafull" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="datafull" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD154"/>
+  <dimension ref="A1:BD155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30054,6 +30054,288 @@
         </is>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>TMRC</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TMRC_AVERAGE_QTR_BALANCE_IMP</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>TMRC_HighTowerQTRBAL.*</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>CSV</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AA155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AC155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AD155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AG155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AH155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AI155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AJ155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AK155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AL155" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AM155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AN155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AO155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AP155" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AQ155" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AR155" t="inlineStr">
+        <is>
+          <t>TMRC_ACCOUNT_QTR</t>
+        </is>
+      </c>
+      <c r="AS155" t="inlineStr">
+        <is>
+          <t>DV-AW-SQL04</t>
+        </is>
+      </c>
+      <c r="AT155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AU155" t="inlineStr">
+        <is>
+          <t>hightoweradvisors.us-east-1</t>
+        </is>
+      </c>
+      <c r="AV155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AW155" t="inlineStr">
+        <is>
+          <t>wh_load</t>
+        </is>
+      </c>
+      <c r="AX155" t="inlineStr">
+        <is>
+          <t>ht_vendor_stage</t>
+        </is>
+      </c>
+      <c r="AY155" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="AZ155" t="inlineStr">
+        <is>
+          <t>COMMADELIMITED</t>
+        </is>
+      </c>
+      <c r="BA155" t="inlineStr">
+        <is>
+          <t>LOAD_TMRC_AVERAGE_QTR_BALANCE</t>
+        </is>
+      </c>
+      <c r="BB155" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="BC155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BD155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datafull.xlsx
+++ b/datafull.xlsx
@@ -2161,170 +2161,286 @@
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>IWS</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>IWS_ASSET_FEE_MIN_IMP</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>IWS_Asset_Fee_Min_\d+\.xls</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>CSV</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="n"/>
-      <c r="N9" s="4" t="n"/>
-      <c r="O9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="P9" s="4" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" s="4" t="n"/>
-      <c r="T9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="U9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="V9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="W9" s="5" t="n"/>
-      <c r="X9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="Y9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="Z9" s="4" t="n"/>
-      <c r="AA9" s="5" t="n"/>
-      <c r="AB9" s="4" t="n"/>
-      <c r="AC9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AD9" s="4" t="n"/>
-      <c r="AE9" s="4" t="n"/>
-      <c r="AF9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AG9" s="4" t="n"/>
-      <c r="AH9" s="5" t="n"/>
-      <c r="AI9" s="5" t="n"/>
-      <c r="AJ9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AK9" s="4" t="n"/>
-      <c r="AL9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AM9" s="5" t="n"/>
-      <c r="AN9" s="5" t="n"/>
-      <c r="AO9" s="5" t="n"/>
-      <c r="AP9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AQ9" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AR9" s="4" t="n"/>
-      <c r="AS9" s="4" t="n"/>
-      <c r="AT9" s="4" t="n"/>
-      <c r="AU9" s="4" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
         <is>
           <t>hightoweradvisors.us-east-1</t>
         </is>
       </c>
-      <c r="AV9" s="4" t="n"/>
-      <c r="AW9" s="4" t="inlineStr">
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
         <is>
           <t>wh_load</t>
         </is>
       </c>
-      <c r="AX9" s="4" t="inlineStr">
+      <c r="AX9" t="inlineStr">
         <is>
           <t>ht_vendor_stage</t>
         </is>
       </c>
-      <c r="AY9" s="4" t="inlineStr">
+      <c r="AY9" t="inlineStr">
         <is>
           <t>src</t>
         </is>
       </c>
-      <c r="AZ9" s="4" t="inlineStr">
+      <c r="AZ9" t="inlineStr">
         <is>
           <t>COMMADELIMITED</t>
         </is>
       </c>
-      <c r="BA9" s="4" t="inlineStr">
+      <c r="BA9" t="inlineStr">
         <is>
           <t>LOAD_IWS_AssetFeeMin</t>
         </is>
       </c>
-      <c r="BB9" s="4" t="inlineStr">
+      <c r="BB9" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="BC9" s="4" t="n"/>
-      <c r="BD9" s="4" t="n"/>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
@@ -2979,176 +3095,286 @@
       <c r="BD13" s="4" t="n"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>IWS</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>COGS_MUTUAL_FUND_DIRECTORY_IMP</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Fidelity_Template.*</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>CSV</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="J14" s="4" t="n"/>
-      <c r="K14" s="5" t="n"/>
-      <c r="L14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="n"/>
-      <c r="N14" s="4" t="n"/>
-      <c r="O14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="P14" s="4" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>\nCertain</t>
         </is>
       </c>
-      <c r="T14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="U14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="V14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="W14" s="5" t="n"/>
-      <c r="X14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="Y14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="Z14" s="4" t="n"/>
-      <c r="AA14" s="5" t="n"/>
-      <c r="AB14" s="4" t="n"/>
-      <c r="AC14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AD14" s="4" t="n"/>
-      <c r="AE14" s="4" t="n"/>
-      <c r="AF14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AG14" s="4" t="n"/>
-      <c r="AH14" s="5" t="n"/>
-      <c r="AI14" s="5" t="n"/>
-      <c r="AJ14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AK14" s="4" t="n"/>
-      <c r="AL14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AM14" s="5" t="n"/>
-      <c r="AN14" s="5" t="n"/>
-      <c r="AO14" s="5" t="n"/>
-      <c r="AP14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AQ14" s="4" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AR14" s="4" t="n"/>
-      <c r="AS14" s="4" t="n"/>
-      <c r="AT14" s="4" t="n"/>
-      <c r="AU14" s="4" t="inlineStr">
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
         <is>
           <t>hightoweradvisors.us-east-1</t>
         </is>
       </c>
-      <c r="AV14" s="4" t="n"/>
-      <c r="AW14" s="4" t="inlineStr">
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
         <is>
           <t>wh_load</t>
         </is>
       </c>
-      <c r="AX14" s="4" t="inlineStr">
+      <c r="AX14" t="inlineStr">
         <is>
           <t>ht_vendor_stage</t>
         </is>
       </c>
-      <c r="AY14" s="4" t="inlineStr">
+      <c r="AY14" t="inlineStr">
         <is>
           <t>src</t>
         </is>
       </c>
-      <c r="AZ14" s="4" t="inlineStr">
+      <c r="AZ14" t="inlineStr">
         <is>
           <t>COMMADELIMITED</t>
         </is>
       </c>
-      <c r="BA14" s="4" t="inlineStr">
+      <c r="BA14" t="inlineStr">
         <is>
           <t>LOAD_IWS_COGS_MUTUAL_FUND_DIRECTORY</t>
         </is>
       </c>
-      <c r="BB14" s="4" t="inlineStr">
+      <c r="BB14" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="BC14" s="4" t="n"/>
-      <c r="BD14" s="4" t="n"/>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="4" t="inlineStr">

--- a/datafull.xlsx
+++ b/datafull.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD155"/>
+  <dimension ref="A1:BD151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27745,157 +27745,157 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Enter Custodian</t>
+          <t>SWB</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Enter Source Destination</t>
+          <t>SWB_POSITIONSEC_IMP</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Enter Source File</t>
+          <t>SWB_CRS.RPS.*</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Enter Date Format</t>
+          <t>YYYYMMDD</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Enter Header Delimiter</t>
+          <t>|</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Enter Additional Header Delimiter</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Enter XLS Sheet Name</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Enter Zip File Name</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Enter Filter File Name</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Enter Start String</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Enter First Record Identifier</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Enter Strip Leading Characters</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Enter Sequence</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>Enter Config File</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Enter Delimiter</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>Enter Filter Value</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>Enter JSON KeyName</t>
+          <t>None</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>New Column Date</t>
+          <t>None</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>New Column Index</t>
+          <t>None</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>New Column Count</t>
+          <t>None</t>
         </is>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>File Label</t>
+          <t>SWB_POSITIONSEC</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>Server</t>
+          <t>DV-AW-SQL04</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>Snowflake Account</t>
+          <t>hightoweradvisors.us-east-1</t>
         </is>
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>Snowflake Authenticator</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>Snowflake Warehouse</t>
+          <t>wh_load</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>Snowflake Database</t>
+          <t>ht_vendor_stage</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>Snowflake Schema</t>
+          <t>src</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>Snowflake FileFormat</t>
+          <t>PIPEDELIMITED</t>
         </is>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
-          <t>Stored Procedure</t>
+          <t>LOAD_SWB_PositionSEC</t>
         </is>
       </c>
       <c r="AD146" t="inlineStr">
         <is>
-          <t>Priority</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AE146" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>Needs filtering on a column</t>
         </is>
       </c>
       <c r="AF146" t="inlineStr">
@@ -27915,421 +27915,421 @@
       </c>
       <c r="AI146" t="inlineStr">
         <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AJ146" t="inlineStr">
+        <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AJ146" t="inlineStr">
+      <c r="AK146" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AK146" t="inlineStr">
+      <c r="AL146" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AL146" t="inlineStr">
+      <c r="AM146" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AM146" t="inlineStr">
+      <c r="AN146" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AN146" t="inlineStr">
+      <c r="AO146" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AO146" t="inlineStr">
+      <c r="AP146" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AP146" t="inlineStr">
+      <c r="AQ146" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AR146" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AQ146" t="inlineStr">
+      <c r="AS146" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AS146" t="inlineStr">
+      <c r="AU146" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AT146" t="inlineStr">
+      <c r="AV146" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AW146" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AU146" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AV146" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AW146" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
       <c r="AX146" t="inlineStr">
         <is>
-          <t>Fixed_Width</t>
+          <t>Pipe_Delimited</t>
         </is>
       </c>
       <c r="AY146" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AZ146" t="inlineStr">
         <is>
-          <t>Enter Date Position</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BA146" t="inlineStr">
         <is>
-          <t>Enter Number of Quarters</t>
+          <t>None</t>
         </is>
       </c>
       <c r="BB146" t="inlineStr">
         <is>
-          <t>Enter Number of Header Lines</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BC146" t="inlineStr">
         <is>
-          <t>Enter Number of Trailer Lines</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BD146" t="inlineStr">
         <is>
-          <t>Enter Column Number</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Enter Custodian</t>
+          <t>SWB</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Enter Source Destination</t>
+          <t>SWB_TRANSACTION_IMP</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Enter Source File</t>
+          <t>SWB_CRS.TRN.*</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Enter Date Format</t>
+          <t>YYYYMMDD</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Enter Header Delimiter</t>
+          <t>|</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Enter XLS Sheet Name</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Enter Start String</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Enter Sequence</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Enter Config File</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>New Column Index</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Snowflake Account</t>
+          <t>hightoweradvisors.us-east-1</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Snowflake Schema</t>
+          <t>src</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Snowflake FileFormat</t>
+          <t>PIPEDELIMITED</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>Priority</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="Q147" t="inlineStr">
+      <c r="R147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="R147" t="inlineStr">
+      <c r="S147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="S147" t="inlineStr">
+      <c r="T147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="T147" t="inlineStr">
+      <c r="U147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="U147" t="inlineStr">
+      <c r="V147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="V147" t="inlineStr">
+      <c r="W147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="W147" t="inlineStr">
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="X147" t="inlineStr">
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>Pipe_Delimited</t>
+        </is>
+      </c>
+      <c r="AA147" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AC147" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AD147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE147" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="Y147" t="inlineStr">
+      <c r="AG147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="Z147" t="inlineStr">
-        <is>
-          <t>Fixed_Width</t>
-        </is>
-      </c>
-      <c r="AA147" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AB147" t="inlineStr">
-        <is>
-          <t>Enter Date Position</t>
-        </is>
-      </c>
-      <c r="AC147" t="inlineStr">
-        <is>
-          <t>Enter Number of Quarters</t>
-        </is>
-      </c>
-      <c r="AD147" t="inlineStr">
-        <is>
-          <t>Enter Number of Trailer Lines</t>
-        </is>
-      </c>
-      <c r="AE147" t="inlineStr">
-        <is>
-          <t>Enter Column Number</t>
-        </is>
-      </c>
-      <c r="AF147" t="inlineStr">
+      <c r="AH147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AG147" t="inlineStr">
+      <c r="AI147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AH147" t="inlineStr">
+      <c r="AJ147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AI147" t="inlineStr">
+      <c r="AK147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AJ147" t="inlineStr">
+      <c r="AL147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AK147" t="inlineStr">
+      <c r="AM147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AL147" t="inlineStr">
+      <c r="AN147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AM147" t="inlineStr">
+      <c r="AO147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AN147" t="inlineStr">
+      <c r="AP147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AO147" t="inlineStr">
+      <c r="AQ147" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AR147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AP147" t="inlineStr">
+      <c r="AS147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AQ147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AU147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AS147" t="inlineStr">
+      <c r="AV147" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AW147" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AT147" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AU147" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AV147" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AW147" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
       <c r="AX147" t="inlineStr">
         <is>
-          <t>Fixed_Width</t>
+          <t>Pipe_Delimited</t>
         </is>
       </c>
       <c r="AY147" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AZ147" t="inlineStr">
         <is>
-          <t>Enter Date Position</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BA147" t="inlineStr">
         <is>
-          <t>Enter Number of Quarters</t>
+          <t>None</t>
         </is>
       </c>
       <c r="BB147" t="inlineStr">
         <is>
-          <t>Enter Number of Header Lines</t>
+          <t>3</t>
         </is>
       </c>
       <c r="BC147" t="inlineStr">
         <is>
-          <t>Enter Number of Trailer Lines</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BD147" t="inlineStr">
         <is>
-          <t>Enter Column Number</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SWB</t>
+          <t>IWS</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SWB_POSITIONSEC_IMP</t>
+          <t>COGS_MUTUAL_FUND_DIRECTORY_IMP</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SWB_CRS.RPS.*</t>
+          <t>Fidelity_Template.*</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>YYYYMMDD</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -28354,39 +28354,39 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
+          <t>\nCertain</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr">
+      <c r="M148" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
+      <c r="N148" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr">
+      <c r="O148" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr">
+      <c r="P148" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
       <c r="Q148" t="inlineStr">
         <is>
           <t>None</t>
@@ -28409,12 +28409,12 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>SWB_POSITIONSEC</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>DV-AW-SQL04</t>
+          <t>None</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
@@ -28444,12 +28444,12 @@
       </c>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>PIPEDELIMITED</t>
+          <t>COMMADELIMITED</t>
         </is>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
-          <t>LOAD_SWB_PositionSEC</t>
+          <t>LOAD_IWS_COGS_MUTUAL_FUND_DIRECTORY</t>
         </is>
       </c>
       <c r="AD148" t="inlineStr">
@@ -28459,69 +28459,69 @@
       </c>
       <c r="AE148" t="inlineStr">
         <is>
-          <t>Needs filtering on a column</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AF148" t="inlineStr">
         <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AG148" t="inlineStr">
+        <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AG148" t="inlineStr">
+      <c r="AH148" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AH148" t="inlineStr">
+      <c r="AI148" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AJ148" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AI148" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="AJ148" t="inlineStr">
+      <c r="AK148" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AK148" t="inlineStr">
+      <c r="AL148" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AL148" t="inlineStr">
+      <c r="AM148" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AM148" t="inlineStr">
+      <c r="AN148" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AN148" t="inlineStr">
+      <c r="AO148" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AO148" t="inlineStr">
+      <c r="AP148" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AP148" t="inlineStr">
+      <c r="AQ148" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="AQ148" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
       <c r="AR148" t="inlineStr">
         <is>
           <t>Not Selected</t>
@@ -28544,7 +28544,7 @@
       </c>
       <c r="AV148" t="inlineStr">
         <is>
-          <t>Selected</t>
+          <t>Not Selected</t>
         </is>
       </c>
       <c r="AW148" t="inlineStr">
@@ -28554,17 +28554,17 @@
       </c>
       <c r="AX148" t="inlineStr">
         <is>
-          <t>Pipe_Delimited</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="AY148" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AZ148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>None</t>
         </is>
       </c>
       <c r="BA148" t="inlineStr">
@@ -28574,44 +28574,44 @@
       </c>
       <c r="BB148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BC148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>?</t>
         </is>
       </c>
       <c r="BD148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SWB</t>
+          <t>IWS</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SWB_TRANSACTION_IMP</t>
+          <t>COGS_MUTUAL_FUND_DIRECTORY_IMP</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SWB_CRS.TRN.*</t>
+          <t>Fidelity_Template.*</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>YYYYMMDD</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -28636,399 +28636,399 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
+          <t>\nCertain</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
         <is>
           <t>hightoweradvisors.us-east-1</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr">
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>wh_load</t>
+        </is>
+      </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>ht_vendor_stage</t>
+        </is>
+      </c>
+      <c r="AA149" t="inlineStr">
         <is>
           <t>src</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>PIPEDELIMITED</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>COMMADELIMITED</t>
+        </is>
+      </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>LOAD_IWS_COGS_MUTUAL_FUND_DIRECTORY</t>
+        </is>
+      </c>
+      <c r="AD149" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr">
+      <c r="AE149" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P149" t="inlineStr">
+      <c r="AF149" t="inlineStr">
         <is>
           <t>Selected</t>
         </is>
       </c>
-      <c r="Q149" t="inlineStr">
+      <c r="AG149" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="R149" t="inlineStr">
+      <c r="AH149" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="S149" t="inlineStr">
+      <c r="AI149" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="AJ149" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="T149" t="inlineStr">
+      <c r="AK149" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="U149" t="inlineStr">
+      <c r="AL149" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="V149" t="inlineStr">
+      <c r="AM149" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="W149" t="inlineStr">
+      <c r="AN149" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="X149" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="Y149" t="inlineStr">
+      <c r="AO149" t="inlineStr">
         <is>
           <t>Not Selected</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr">
-        <is>
-          <t>Pipe_Delimited</t>
-        </is>
-      </c>
-      <c r="AA149" t="inlineStr">
+      <c r="AP149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AQ149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AR149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AS149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AT149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AU149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AV149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AW149" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AX149" t="inlineStr">
+        <is>
+          <t>CSV</t>
+        </is>
+      </c>
+      <c r="AY149" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AB149" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AC149" t="inlineStr">
+      <c r="AZ149" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="AD149" t="inlineStr">
+      <c r="BA149" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="BB149" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AE149" t="inlineStr">
+      <c r="BC149" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="BD149" t="inlineStr">
         <is>
           <t>None</t>
-        </is>
-      </c>
-      <c r="AF149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AG149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AH149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AI149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AJ149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AK149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AL149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AM149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AN149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AO149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AP149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AQ149" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="AR149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AS149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AT149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AU149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AV149" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="AW149" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AX149" t="inlineStr">
-        <is>
-          <t>Pipe_Delimited</t>
-        </is>
-      </c>
-      <c r="AY149" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AZ149" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BA149" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="BB149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BC149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BD149" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IWS</t>
+          <t>SWB</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>COGS_MUTUAL_FUND_DIRECTORY_IMP</t>
+          <t>SWB_TRANSACTION_IMP</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Fidelity_Template.*</t>
+          <t>SWB_CRS.TRN.*</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
+          <t>YYYYMMDD</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>hightoweradvisors.us-east-1</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>PIPEDELIMITED</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>\nCertain</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
+      <c r="O150" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr">
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>Pipe_Delimited</t>
+        </is>
+      </c>
+      <c r="AA150" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AC150" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
+      <c r="AD150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE150" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W150" t="inlineStr">
-        <is>
-          <t>hightoweradvisors.us-east-1</t>
-        </is>
-      </c>
-      <c r="X150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Y150" t="inlineStr">
-        <is>
-          <t>wh_load</t>
-        </is>
-      </c>
-      <c r="Z150" t="inlineStr">
-        <is>
-          <t>ht_vendor_stage</t>
-        </is>
-      </c>
-      <c r="AA150" t="inlineStr">
-        <is>
-          <t>src</t>
-        </is>
-      </c>
-      <c r="AB150" t="inlineStr">
-        <is>
-          <t>COMMADELIMITED</t>
-        </is>
-      </c>
-      <c r="AC150" t="inlineStr">
-        <is>
-          <t>LOAD_IWS_COGS_MUTUAL_FUND_DIRECTORY</t>
-        </is>
-      </c>
-      <c r="AD150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AE150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="AF150" t="inlineStr">
         <is>
-          <t>Selected</t>
+          <t>Not Selected</t>
         </is>
       </c>
       <c r="AG150" t="inlineStr">
@@ -29043,7 +29043,7 @@
       </c>
       <c r="AI150" t="inlineStr">
         <is>
-          <t>Selected</t>
+          <t>Not Selected</t>
         </is>
       </c>
       <c r="AJ150" t="inlineStr">
@@ -29155,269 +29155,269 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IWS</t>
+          <t>SWB</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>COGS_MUTUAL_FUND_DIRECTORY_IMP</t>
+          <t>SWB_TRANSACTION_IMP</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Fidelity_Template.*</t>
+          <t>SWB_CRS.TRN.*</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
+          <t>YYYYMMDD</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>hightoweradvisors.us-east-1</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>PIPEDELIMITED</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>\nCertain</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
+      <c r="O151" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr">
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>Pipe_Delimited</t>
+        </is>
+      </c>
+      <c r="AA151" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AB151" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AC151" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
+      <c r="AD151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE151" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr">
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AG151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AH151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AI151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AJ151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AK151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AL151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AM151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AN151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AO151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AP151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AQ151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AR151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AS151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AT151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AU151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AV151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AW151" t="inlineStr">
+        <is>
+          <t>Not Selected</t>
+        </is>
+      </c>
+      <c r="AX151" t="inlineStr">
+        <is>
+          <t>CSV</t>
+        </is>
+      </c>
+      <c r="AY151" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AZ151" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="O151" t="inlineStr">
+      <c r="BA151" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Q151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W151" t="inlineStr">
-        <is>
-          <t>hightoweradvisors.us-east-1</t>
-        </is>
-      </c>
-      <c r="X151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Y151" t="inlineStr">
-        <is>
-          <t>wh_load</t>
-        </is>
-      </c>
-      <c r="Z151" t="inlineStr">
-        <is>
-          <t>ht_vendor_stage</t>
-        </is>
-      </c>
-      <c r="AA151" t="inlineStr">
-        <is>
-          <t>src</t>
-        </is>
-      </c>
-      <c r="AB151" t="inlineStr">
-        <is>
-          <t>COMMADELIMITED</t>
-        </is>
-      </c>
-      <c r="AC151" t="inlineStr">
-        <is>
-          <t>LOAD_IWS_COGS_MUTUAL_FUND_DIRECTORY</t>
-        </is>
-      </c>
-      <c r="AD151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AE151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AF151" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="AG151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AH151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AI151" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="AJ151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AK151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AL151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AM151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AN151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AO151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AP151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AQ151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AR151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AS151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AT151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AU151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AV151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AW151" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AX151" t="inlineStr">
-        <is>
-          <t>CSV</t>
-        </is>
-      </c>
-      <c r="AY151" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AZ151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="BA151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="BB151" t="inlineStr">
         <is>
           <t>1</t>
@@ -29429,1134 +29429,6 @@
         </is>
       </c>
       <c r="BD151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>SWB</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>SWB_TRANSACTION_IMP</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>SWB_CRS.TRN.*</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>YYYYMMDD</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>hightoweradvisors.us-east-1</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>src</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>PIPEDELIMITED</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="U152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="V152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="W152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="X152" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="Y152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="Z152" t="inlineStr">
-        <is>
-          <t>Pipe_Delimited</t>
-        </is>
-      </c>
-      <c r="AA152" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AB152" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AC152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD152" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AF152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AG152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AH152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AI152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AJ152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AK152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AL152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AM152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AN152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AO152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AP152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AQ152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AR152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AS152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AT152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AU152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AV152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AW152" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AX152" t="inlineStr">
-        <is>
-          <t>CSV</t>
-        </is>
-      </c>
-      <c r="AY152" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AZ152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="BA152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="BB152" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BC152" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="BD152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>SWB</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>SWB_TRANSACTION_IMP</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>SWB_CRS.TRN.*</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>YYYYMMDD</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>hightoweradvisors.us-east-1</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>src</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>PIPEDELIMITED</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="U153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="V153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="W153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="X153" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="Y153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="Z153" t="inlineStr">
-        <is>
-          <t>Pipe_Delimited</t>
-        </is>
-      </c>
-      <c r="AA153" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AB153" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AC153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD153" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AF153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AG153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AH153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AI153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AJ153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AK153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AL153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AM153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AN153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AO153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AP153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AQ153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AR153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AS153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AT153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AU153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AV153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AW153" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AX153" t="inlineStr">
-        <is>
-          <t>CSV</t>
-        </is>
-      </c>
-      <c r="AY153" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AZ153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="BA153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="BB153" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BC153" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="BD153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>SWB</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>SWB_TRANSACTION_IMP</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>SWB_CRS.TRN.*</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>YYYYMMDD</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>hightoweradvisors.us-east-1</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>src</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>PIPEDELIMITED</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="U154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="V154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="W154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="X154" t="inlineStr">
-        <is>
-          <t>Selected</t>
-        </is>
-      </c>
-      <c r="Y154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="Z154" t="inlineStr">
-        <is>
-          <t>Pipe_Delimited</t>
-        </is>
-      </c>
-      <c r="AA154" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AB154" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AC154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AF154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AG154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AH154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AI154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AJ154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AK154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AL154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AM154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AN154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AO154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AP154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AQ154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AR154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AS154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AT154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AU154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AV154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AW154" t="inlineStr">
-        <is>
-          <t>Not Selected</t>
-        </is>
-      </c>
-      <c r="AX154" t="inlineStr">
-        <is>
-          <t>CSV</t>
-        </is>
-      </c>
-      <c r="AY154" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AZ154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="BA154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="BB154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BC154" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="BD154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>TMRC</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>TMRC_AVERAGE_QTR_BALANCE_IMP</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>TMRC_HighTowerQTRBAL.*</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>CSV</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="Q155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="U155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="V155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="W155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="X155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="Y155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="Z155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AA155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AB155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AC155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AD155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AE155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AF155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AG155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AH155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AI155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AJ155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AK155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AL155" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="AM155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AN155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AO155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AP155" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AQ155" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AR155" t="inlineStr">
-        <is>
-          <t>TMRC_ACCOUNT_QTR</t>
-        </is>
-      </c>
-      <c r="AS155" t="inlineStr">
-        <is>
-          <t>DV-AW-SQL04</t>
-        </is>
-      </c>
-      <c r="AT155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AU155" t="inlineStr">
-        <is>
-          <t>hightoweradvisors.us-east-1</t>
-        </is>
-      </c>
-      <c r="AV155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AW155" t="inlineStr">
-        <is>
-          <t>wh_load</t>
-        </is>
-      </c>
-      <c r="AX155" t="inlineStr">
-        <is>
-          <t>ht_vendor_stage</t>
-        </is>
-      </c>
-      <c r="AY155" t="inlineStr">
-        <is>
-          <t>src</t>
-        </is>
-      </c>
-      <c r="AZ155" t="inlineStr">
-        <is>
-          <t>COMMADELIMITED</t>
-        </is>
-      </c>
-      <c r="BA155" t="inlineStr">
-        <is>
-          <t>LOAD_TMRC_AVERAGE_QTR_BALANCE</t>
-        </is>
-      </c>
-      <c r="BB155" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="BC155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="BD155" t="inlineStr">
         <is>
           <t>None</t>
         </is>
